--- a/TEMAS_SESIONES.xlsx
+++ b/TEMAS_SESIONES.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneDrive\ASOCIACION_GEOINNOVA\GEOINNOVA_COMUNICACION - 202403_GEOCAMPES_PAMPLONA\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0840EA-D8FF-4364-AB72-E662CD9E02D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443B878E-1FB4-4A81-9D3E-889E079FBF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A5BE044-D3B4-42AA-A063-316850C13B73}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{5A5BE044-D3B4-42AA-A063-316850C13B73}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Definitivo" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Definitivo!$A$1:$F$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="293">
   <si>
     <t>Mariano Salas</t>
   </si>
@@ -162,13 +165,769 @@
   </si>
   <si>
     <t>Presentación</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Hablará</t>
+  </si>
+  <si>
+    <t>OpenStreetMap y gestión de servicios públicos</t>
+  </si>
+  <si>
+    <t>Iván Sanchez Ortega</t>
+  </si>
+  <si>
+    <t>Micho García</t>
+  </si>
+  <si>
+    <t>Software y el consumo de CO2.</t>
+  </si>
+  <si>
+    <t>Ponente</t>
+  </si>
+  <si>
+    <t>Gonzalo Silva Solla</t>
+  </si>
+  <si>
+    <t>Geotecnologías</t>
+  </si>
+  <si>
+    <t>Gestión datos medioambientales</t>
+  </si>
+  <si>
+    <t>Infraestructura de Datos Espaciales de Navarra. (IDENA)</t>
+  </si>
+  <si>
+    <t>Anika Meyer</t>
+  </si>
+  <si>
+    <t>Infraestructura verde Navarra, corredores ecológicos Sakana, red de humedales, vuelo de drones</t>
+  </si>
+  <si>
+    <t>Sofia Logan</t>
+  </si>
+  <si>
+    <t>QGIS, PostGIS</t>
+  </si>
+  <si>
+    <t>Xavier Torret</t>
+  </si>
+  <si>
+    <t>QWC2</t>
+  </si>
+  <si>
+    <t>SITNA, Geopamplona, etc</t>
+  </si>
+  <si>
+    <t>Iban Ameztoy</t>
+  </si>
+  <si>
+    <t>Uso extensivo de herramientas SIG y Teledetección aplicada.</t>
+  </si>
+  <si>
+    <t>Ismael García Fernández</t>
+  </si>
+  <si>
+    <t>Utility Network migraciones</t>
+  </si>
+  <si>
+    <t>Pablo Gonzalez Aja</t>
+  </si>
+  <si>
+    <t>Visor cartográfico municipal sobre inventarios y bienes municipales</t>
+  </si>
+  <si>
+    <t>Pedro Mendive</t>
+  </si>
+  <si>
+    <t>Migracion de SIG corporativo a softaware libre</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Sallaberry</t>
+  </si>
+  <si>
+    <t>Damián</t>
+  </si>
+  <si>
+    <t>Montoya Oyón</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Díez SanMartín</t>
+  </si>
+  <si>
+    <t>Fco Javier</t>
+  </si>
+  <si>
+    <t>Murillo Morón</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>García Coya</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Pérez Sampayo</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Arcocha Azcue</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Borobio Sanchiz</t>
+  </si>
+  <si>
+    <t>Sevilla Callejo</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Oroz Santamaria</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Navarro Zurriaga</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Sanz</t>
+  </si>
+  <si>
+    <t>Josep Lluís</t>
+  </si>
+  <si>
+    <t>Sala Sanguino</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Peralta Hernández</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>Estévez</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Orte sierra</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Silva Solla</t>
+  </si>
+  <si>
+    <t>Emilio</t>
+  </si>
+  <si>
+    <t>Gómez Fernández</t>
+  </si>
+  <si>
+    <t>Jesús</t>
+  </si>
+  <si>
+    <t>Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Parrilla Godínez</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Benitez Restagno</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Villamides</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Quesada Muelas</t>
+  </si>
+  <si>
+    <t>Miquel</t>
+  </si>
+  <si>
+    <t>Febrer Martínez</t>
+  </si>
+  <si>
+    <t>Alejandra</t>
+  </si>
+  <si>
+    <t>Duque Ropero</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Rabasco Bravo</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>García Maliga</t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t>GÓMEZ LOSADA</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>Azuara</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>López Rodríguez</t>
+  </si>
+  <si>
+    <t>Patricio</t>
+  </si>
+  <si>
+    <t>Soriano</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Echamendi Lorente</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Huarte</t>
+  </si>
+  <si>
+    <t>Antonio José</t>
+  </si>
+  <si>
+    <t>Manzanares López</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Torret</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Guzmán</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Acero Argüelles</t>
+  </si>
+  <si>
+    <t>Mariano</t>
+  </si>
+  <si>
+    <t>Salas Martinez</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Moya guixeras</t>
+  </si>
+  <si>
+    <t>Natacha</t>
+  </si>
+  <si>
+    <t>De Freitas Silva</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Matellanes</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>GONZALEZ AJA</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>García Juanes</t>
+  </si>
+  <si>
+    <t>Yansa</t>
+  </si>
+  <si>
+    <t>Tejada Mengibar</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Martín Cortés</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Martínez González</t>
+  </si>
+  <si>
+    <t>José Manuel</t>
+  </si>
+  <si>
+    <t>Vázquez López</t>
+  </si>
+  <si>
+    <t>Oskar</t>
+  </si>
+  <si>
+    <t>Karlsson</t>
+  </si>
+  <si>
+    <t>José Ignacio</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Nanclares da Veiga</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Soneira Salgado</t>
+  </si>
+  <si>
+    <t>Brais</t>
+  </si>
+  <si>
+    <t>Caamaño Blanco</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Bruguera Bullich</t>
+  </si>
+  <si>
+    <t>Paulino</t>
+  </si>
+  <si>
+    <t>Vallejo Climent</t>
+  </si>
+  <si>
+    <t>López Quintanilla</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Sánchez Ortega</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Herrador</t>
+  </si>
+  <si>
+    <t>Aguilar Ramírez</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Goizueta</t>
+  </si>
+  <si>
+    <t>Olaya Ferrero</t>
+  </si>
+  <si>
+    <t>Juana</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Moreno Gonzalez</t>
+  </si>
+  <si>
+    <t>Raf</t>
+  </si>
+  <si>
+    <t>Roset</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>Tàrrega</t>
+  </si>
+  <si>
+    <t>Alexandrine</t>
+  </si>
+  <si>
+    <t>Moriones Oyon</t>
+  </si>
+  <si>
+    <t>Jabier</t>
+  </si>
+  <si>
+    <t>Ruiz Mirazo</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Erill</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Mendive</t>
+  </si>
+  <si>
+    <t>Unai</t>
+  </si>
+  <si>
+    <t>Gómez Ibáñez</t>
+  </si>
+  <si>
+    <t>Brizuela Martínez</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>Lacunza Prieto</t>
+  </si>
+  <si>
+    <t>Lourdes</t>
+  </si>
+  <si>
+    <t>Albizua</t>
+  </si>
+  <si>
+    <t>Mónica</t>
+  </si>
+  <si>
+    <t>Cárcar</t>
+  </si>
+  <si>
+    <t>Alazne</t>
+  </si>
+  <si>
+    <t>Bereziartua</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>García Fernández</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Urdanoz Melado</t>
+  </si>
+  <si>
+    <t>Sánchez Salsamendi</t>
+  </si>
+  <si>
+    <t>Nicolas Sallaberry</t>
+  </si>
+  <si>
+    <t>Damián Montoya Oyón</t>
+  </si>
+  <si>
+    <t>Carmen Díez SanMartín</t>
+  </si>
+  <si>
+    <t>Fco Javier Murillo Morón</t>
+  </si>
+  <si>
+    <t>Miguel García Coya</t>
+  </si>
+  <si>
+    <t>Francisco Pérez Sampayo</t>
+  </si>
+  <si>
+    <t>Cristina Arcocha Azcue</t>
+  </si>
+  <si>
+    <t>Manuel Borobio Sanchiz</t>
+  </si>
+  <si>
+    <t>Jon Oroz Santamaria</t>
+  </si>
+  <si>
+    <t>Víctor Navarro Zurriaga</t>
+  </si>
+  <si>
+    <t>Josep Lluís Sala Sanguino</t>
+  </si>
+  <si>
+    <t>Daniel Peralta Hernández</t>
+  </si>
+  <si>
+    <t>Raúl Estévez</t>
+  </si>
+  <si>
+    <t>Ignacio Orte sierra</t>
+  </si>
+  <si>
+    <t>Emilio Gómez Fernández</t>
+  </si>
+  <si>
+    <t>Jesús Gómez Fernández</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Parrilla Godínez</t>
+  </si>
+  <si>
+    <t>Nicolás Benitez Restagno</t>
+  </si>
+  <si>
+    <t>Luis Quesada Muelas</t>
+  </si>
+  <si>
+    <t>Miquel Febrer Martínez</t>
+  </si>
+  <si>
+    <t>Alejandra Duque Ropero</t>
+  </si>
+  <si>
+    <t>Rafael García Maliga</t>
+  </si>
+  <si>
+    <t>FRANCISCO GÓMEZ LOSADA</t>
+  </si>
+  <si>
+    <t>Violeta Azuara</t>
+  </si>
+  <si>
+    <t>Enrique López Rodríguez</t>
+  </si>
+  <si>
+    <t>Pablo Echamendi Lorente</t>
+  </si>
+  <si>
+    <t>Antonio José Manzanares López</t>
+  </si>
+  <si>
+    <t>Maria Guzmán</t>
+  </si>
+  <si>
+    <t>Beatriz Acero Argüelles</t>
+  </si>
+  <si>
+    <t>Mariano Salas Martinez</t>
+  </si>
+  <si>
+    <t>Alex Moya guixeras</t>
+  </si>
+  <si>
+    <t>Natacha De Freitas Silva</t>
+  </si>
+  <si>
+    <t>Roberto Matellanes</t>
+  </si>
+  <si>
+    <t>Abel García Juanes</t>
+  </si>
+  <si>
+    <t>Yansa Tejada Mengibar</t>
+  </si>
+  <si>
+    <t>Carlos Martín Cortés</t>
+  </si>
+  <si>
+    <t>Virginia Martínez González</t>
+  </si>
+  <si>
+    <t>José Manuel Vázquez López</t>
+  </si>
+  <si>
+    <t>Oskar Karlsson</t>
+  </si>
+  <si>
+    <t>José Ignacio Sánchez</t>
+  </si>
+  <si>
+    <t>Raul Nanclares da Veiga</t>
+  </si>
+  <si>
+    <t>Alberto Soneira Salgado</t>
+  </si>
+  <si>
+    <t>Brais Caamaño Blanco</t>
+  </si>
+  <si>
+    <t>Joan Bruguera Bullich</t>
+  </si>
+  <si>
+    <t>Paulino Vallejo Climent</t>
+  </si>
+  <si>
+    <t>Alejandra Aguilar Ramírez</t>
+  </si>
+  <si>
+    <t>Javier Goizueta</t>
+  </si>
+  <si>
+    <t>Víctor Olaya Ferrero</t>
+  </si>
+  <si>
+    <t>Juana Ruiz</t>
+  </si>
+  <si>
+    <t>Raf Roset</t>
+  </si>
+  <si>
+    <t>Carolina Tàrrega</t>
+  </si>
+  <si>
+    <t>Alexandrine Moriones Oyon</t>
+  </si>
+  <si>
+    <t>Jabier Ruiz Mirazo</t>
+  </si>
+  <si>
+    <t>David Erill</t>
+  </si>
+  <si>
+    <t>Unai Gómez Ibáñez</t>
+  </si>
+  <si>
+    <t>Pablo Brizuela Martínez</t>
+  </si>
+  <si>
+    <t>Fernando Lacunza Prieto</t>
+  </si>
+  <si>
+    <t>Lourdes Albizua</t>
+  </si>
+  <si>
+    <t>Mónica Cárcar</t>
+  </si>
+  <si>
+    <t>Alazne Bereziartua</t>
+  </si>
+  <si>
+    <t>Vicente Urdanoz Melado</t>
+  </si>
+  <si>
+    <t>Jesús Sánchez Salsamendi</t>
+  </si>
+  <si>
+    <t>BIM</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Representación de una red de canalizaciones con disparadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulino Vallejo </t>
+  </si>
+  <si>
+    <t>Cómo las administraciones públicas influyen en el uso de herramientas OpenSource</t>
+  </si>
+  <si>
+    <t>Comunidad</t>
+  </si>
+  <si>
+    <t>Asociación QGIS España</t>
+  </si>
+  <si>
+    <t>Administración Pública</t>
+  </si>
+  <si>
+    <t>por confirmar</t>
+  </si>
+  <si>
+    <t>Actualizaciones geométricas en tiempo real del lado del cliente</t>
+  </si>
+  <si>
+    <t>Demo de renderización de campos escalares en clientes</t>
+  </si>
+  <si>
+    <t>María Guzmán</t>
+  </si>
+  <si>
+    <t>Qfield</t>
+  </si>
+  <si>
+    <t>OSGeo4W y FOSS4G 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +951,80 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,14 +1032,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -554,15 +1453,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E3EFB9-2EFE-417E-BB8B-952B35BC525A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.36328125" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.36328125" customWidth="1"/>
+    <col min="3" max="3" width="80.1796875" customWidth="1"/>
     <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -606,30 +1505,30 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -637,67 +1536,67 @@
     </row>
     <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -705,16 +1604,19 @@
     </row>
     <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -736,33 +1638,36 @@
     </row>
     <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -787,33 +1692,30 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -821,22 +1723,2313 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{F9E3EFB9-2EFE-417E-BB8B-952B35BC525A}"/>
+  <autoFilter ref="A1:E16" xr:uid="{F9E3EFB9-2EFE-417E-BB8B-952B35BC525A}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+      <sortCondition ref="E1:E16"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC1099-4160-4C48-85CA-2FD1C97B1B47}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="5"/>
+    <col min="2" max="2" width="14.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="32.36328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="51.453125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>2</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="11">
+        <v>1</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="11">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19">
+        <v>2</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="11">
+        <v>3</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>2</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>1</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>1</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>2</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" s="14" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>2</v>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>3</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>2</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>3</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>2</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>2</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>3</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>3</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>1</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>1</v>
+      </c>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>1</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>2</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="11">
+        <v>2</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11">
+        <v>1</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="11">
+        <v>1</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="11">
+        <v>1</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="11">
+        <v>2</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="11">
+        <v>3</v>
+      </c>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11">
+        <v>2</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="11">
+        <v>3</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="11">
+        <v>1</v>
+      </c>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="11">
+        <v>1</v>
+      </c>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="11">
+        <v>1</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="1:6" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="11">
+        <v>3</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="11">
+        <v>1</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+    </row>
+    <row r="79" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="11">
+        <v>2</v>
+      </c>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="11">
+        <v>3</v>
+      </c>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="11">
+        <v>3</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="11">
+        <v>1</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="11">
+        <v>1</v>
+      </c>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F85" xr:uid="{60DC1099-4160-4C48-85CA-2FD1C97B1B47}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F84">
+      <sortCondition ref="C1:C85"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C30F758-EF8C-48D7-965C-A0C88BF12FB4}">
+  <dimension ref="A1:J79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="str">
+        <f>A2 &amp;" "&amp;B2</f>
+        <v>Nicolas Sallaberry</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">A3 &amp;" "&amp;B3</f>
+        <v>Damián Montoya Oyón</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Carmen Díez SanMartín</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Fco Javier Murillo Morón</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Miguel García Coya</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Francisco Pérez Sampayo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Cristina Arcocha Azcue</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Manuel Borobio Sanchiz</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Miguel Sevilla Callejo</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Jon Oroz Santamaria</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Víctor Navarro Zurriaga</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Jorge Sanz</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Josep Lluís Sala Sanguino</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Daniel Peralta Hernández</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Raúl Estévez</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ignacio Orte sierra</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Gonzalo Silva Solla</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Emilio Gómez Fernández</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Jesús Gómez Fernández</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Miguel Ángel Parrilla Godínez</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Nicolás Benitez Restagno</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercedes Villamides</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Luis Quesada Muelas</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Miquel Febrer Martínez</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Alejandra Duque Ropero</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Eva Rabasco Bravo</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Rafael García Maliga</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>FRANCISCO GÓMEZ LOSADA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Violeta Azuara</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Enrique López Rodríguez</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Patricio Soriano</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pablo Echamendi Lorente</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Alvaro Huarte</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Antonio José Manzanares López</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Xavier Torret</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Maria Guzmán</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Beatriz Acero Argüelles</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Mariano Salas Martinez</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Moya guixeras</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Natacha De Freitas Silva</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Roberto Matellanes</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>PABLO GONZALEZ AJA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Abel García Juanes</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Yansa Tejada Mengibar</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos Martín Cortés</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Virginia Martínez González</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>José Manuel Vázquez López</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Oskar Karlsson</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>José Ignacio Sánchez</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Raul Nanclares da Veiga</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Alberto Soneira Salgado</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Brais Caamaño Blanco</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Joan Bruguera Bullich</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Paulino Vallejo Climent</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Carlos López Quintanilla</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Sofia Logan</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Iván Sánchez Ortega</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Hugo Herrador</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Alejandra Aguilar Ramírez</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Javier Goizueta</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Víctor Olaya Ferrero</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Juana Ruiz</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Miguel Moreno Gonzalez</v>
+      </c>
+      <c r="I64" s="11">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Raf Roset</v>
+      </c>
+      <c r="I65" s="11">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Carolina Tàrrega</v>
+      </c>
+      <c r="I66" s="11">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E79" si="1">A67 &amp;" "&amp;B67</f>
+        <v>Alexandrine Moriones Oyon</v>
+      </c>
+      <c r="I67" s="19">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>Jabier Ruiz Mirazo</v>
+      </c>
+      <c r="I68" s="11">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>David Erill</v>
+      </c>
+      <c r="I69" s="11">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedro Mendive</v>
+      </c>
+      <c r="I70" s="11">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>Unai Gómez Ibáñez</v>
+      </c>
+      <c r="I71" s="11">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>Pablo Brizuela Martínez</v>
+      </c>
+      <c r="I72" s="11">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>Fernando Lacunza Prieto</v>
+      </c>
+      <c r="I73" s="11">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>Lourdes Albizua</v>
+      </c>
+      <c r="I74" s="11">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>Mónica Cárcar</v>
+      </c>
+      <c r="I75" s="11">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>Alazne Bereziartua</v>
+      </c>
+      <c r="I76" s="21">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>Ismael García Fernández</v>
+      </c>
+      <c r="I77" s="11">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>Vicente Urdanoz Melado</v>
+      </c>
+      <c r="I78" s="19">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>Jesús Sánchez Salsamendi</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
